--- a/Дубах Тест-кейсы ВК.xlsx
+++ b/Дубах Тест-кейсы ВК.xlsx
@@ -87,7 +87,7 @@
     <t xml:space="preserve">Форма авторизации</t>
   </si>
   <si>
-    <t xml:space="preserve">Позиивный вход на сайт с помощью E-mail</t>
+    <t xml:space="preserve">Позитивный вход на сайт с помощью E-mail</t>
   </si>
   <si>
     <r>
@@ -1520,8 +1520,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3462,8 +3462,8 @@
     <hyperlink ref="E15" r:id="rId5" display="Перейти на сайт https://vk.com/;&#10;В поле &quot;Телефон или email&quot;не существующий в БД email;&#10;В поле &quot;пароль&quot; ввести пароль «test-vk»;&#10;Включить чек-бокс «Чужой компьютер»;&#10;Нажать кнопку &quot;Войти&quot;;"/>
     <hyperlink ref="E16" r:id="rId6" display="Перейти на сайт https://vk.com/;&#10;Нажать на ссылку «Забыли пароль»;&#10;В поле &quot;Телефон или emai&quot; ввести «89162838124»;&#10;Нажать на кнопку «Далее»;&#10;Пройти капчу;&#10;В поле «Фамилия» ввести «Тестировщик-Дубах»;&#10;Нажать на кнопку «Далее»;&#10;Нажать на кнопку «Да, это нужная страница»;&#10;Нажать на кнопку «Позвонить»;&#10;Ввести последние 4 цифры входящего номера;&#10;Нажать на кнопку «Отправить код»;&#10;В поле «Новый пароль» ввести «newtest-vk»;&#10;В поле «Повторите пароль» ввести «newtest-vk»;&#10;Нажать на кнопку «Отправить;&#10;В поле &quot;Телефон или email&quot; ввести телефон «89162838124»;&#10;В поле &quot;пароль&quot; ввести «newtest-vk»;&#10;Включить чек-бокс «Чужой компьютер»;&#10;Нажать кнопку &quot;Войти&quot;;"/>
     <hyperlink ref="E17" r:id="rId7" display="Перейти на сайт https://vk.com/;&#10;Нажать на ссылку «Забыли пароль»;&#10;В поле &quot;Телефон или emai&quot; ввести «test-jas4ik@yandex.ru»;&#10;Нажать на кнопку «Далее»;&#10;Пройти капчу;&#10;В поле «Фамилия» ввести «Тестировщик-Дубах»;&#10;Нажать на кнопку «Далее»;&#10;Нажать на кнопку «Да, это нужная страница»;&#10;Нажать на кнопку «Позвонить»;&#10;Ввести последние 4 цифры входящего номера;&#10;Нажать на кнопку «Отправить код»;&#10;В поле «Новый пароль» ввести «newtest-vk»;&#10;В поле «Повторите пароль» ввести «newtest-vk»;&#10;Нажать на кнопку «Отправить;&#10;В поле &quot;Телефон или email&quot; ввести телефон «89162838124»;&#10;В поле &quot;пароль&quot; ввести «newtest-vk»;&#10;Включить чек-бокс «Чужой компьютер»;&#10;Нажать кнопку &quot;Войти&quot;;&#10;"/>
-    <hyperlink ref="E29" r:id="rId8" display="http://hellobook.tilda.ws/"/>
-    <hyperlink ref="F29" r:id="rId9" display="http://hellobook.tilda.ws/"/>
+    <hyperlink ref="E29" r:id="rId8" display="Войти на сайт любым способом;&#10;Перейти в раздел «Сообщества»;&#10;Нажать на кнопку «Создать сообщество»;&#10;В модальном окне выбрать «Бренд или организация»;&#10;В поле «название» ввести «HelloBook»;&#10;В выпадающем списке «Категория» выбрать «Товар или продукция»;&#10;В выпадающем списке «Тематика» выбрать «Книга»;&#10;В поле «сайт» ввести «http://hellobook.tilda.ws/»;&#10;Включить чекбокс согласия с правилами;&#10;Нажать на кнопку «Создать сообщество»&#10;"/>
+    <hyperlink ref="F29" r:id="rId9" display="Открыта страница нового сообщества. Название сообщества — HelloBook, ниже указано — книга. В информации о собществе отображается название сайта - http://hellobook.tilda.ws/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
